--- a/Table/StringTable.xlsx
+++ b/Table/StringTable.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\The_Metro\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,6 +120,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -162,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +417,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,6 +437,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
       <c r="C2">
         <v>54</v>
       </c>
@@ -445,6 +456,9 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
       <c r="C4">
         <v>24</v>
       </c>
@@ -452,6 +466,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
       </c>
       <c r="C5">
         <v>24</v>

--- a/Table/StringTable.xlsx
+++ b/Table/StringTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,31 +35,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>af</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gfaf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dsad</t>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,7 +473,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -484,7 +492,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>43</v>
@@ -500,7 +508,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>42</v>
@@ -508,18 +516,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Table/StringTable.xlsx
+++ b/Table/StringTable.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-054\Documents\GitHub\The_Metro\Table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="8070"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,46 +30,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
+    <t>게임시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn_GameStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,9 +85,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,104 +396,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Table/StringTable.xlsx
+++ b/Table/StringTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID-string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,42 @@
   </si>
   <si>
     <t>게임 시작 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 변경, 모든 UI 종료중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역을 정리중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 변경, 씬 변경중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadingCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 변경 준비 완료, 대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무키나 누르면 진행됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -405,8 +441,8 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -429,6 +465,39 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
